--- a/data/demand.xlsx
+++ b/data/demand.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/hasadna/businessgate/data/business_kinds/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adam/Code/hasadna/businessgate/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA1B2BC9-06E6-4946-8BB7-8BFD6B72BA2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83819964-3194-6446-B8A9-B4D5345E96C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15060" yWindow="7940" windowWidth="30620" windowHeight="17000" xr2:uid="{FF0DD5EB-C4C1-9541-9E0B-4A47F6574753}"/>
+    <workbookView xWindow="5220" yWindow="4300" windowWidth="30620" windowHeight="17000" xr2:uid="{FF0DD5EB-C4C1-9541-9E0B-4A47F6574753}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="137">
   <si>
     <t>עסקים חסרים - קטגוריות ותת-קטגוריות - סך הכל צויין</t>
   </si>
@@ -259,9 +259,6 @@
   </si>
   <si>
     <t>--- פלאפל</t>
-  </si>
-  <si>
-    <t>--- מסעדת אוכל בית</t>
   </si>
   <si>
     <t>--- מיצים טבעיים</t>
@@ -818,8 +815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F21C8E79-1D16-F541-AD87-EFDFA0B907C6}">
   <dimension ref="A1:V116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4384,8 +4381,9 @@
       </c>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>75</v>
+      <c r="A54" s="2" t="str">
+        <f>"--- מסעדת אוכל ביתי"</f>
+        <v>--- מסעדת אוכל ביתי</v>
       </c>
       <c r="B54" s="4">
         <v>0.14000000000000001</v>
@@ -4453,7 +4451,7 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B55" s="4">
         <v>0.12</v>
@@ -4521,7 +4519,7 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B56" s="4">
         <v>0.08</v>
@@ -4589,7 +4587,7 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B57" s="4">
         <v>0.09</v>
@@ -4657,7 +4655,7 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B58" s="4">
         <v>0.06</v>
@@ -4725,7 +4723,7 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B59" s="4">
         <v>7.0000000000000007E-2</v>
@@ -4793,7 +4791,7 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B60" s="4">
         <v>0.11</v>
@@ -4861,7 +4859,7 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B61" s="4">
         <v>0.16</v>
@@ -4929,7 +4927,7 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B62" s="4">
         <v>0.13</v>
@@ -4997,7 +4995,7 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B63" s="4">
         <v>0.12</v>
@@ -5065,7 +5063,7 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B64" s="4">
         <v>7.0000000000000007E-2</v>
@@ -5133,7 +5131,7 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B65" s="4">
         <v>0.01</v>
@@ -5201,7 +5199,7 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B66" s="3">
         <v>0.17</v>
@@ -5269,7 +5267,7 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B67" s="4">
         <v>0.05</v>
@@ -5337,7 +5335,7 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B68" s="4">
         <v>0.05</v>
@@ -5405,7 +5403,7 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B69" s="4">
         <v>0.05</v>
@@ -5473,7 +5471,7 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B70" s="4">
         <v>7.0000000000000007E-2</v>
@@ -5541,7 +5539,7 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B71" s="4">
         <v>0.06</v>
@@ -5609,7 +5607,7 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B72" s="4">
         <v>0.05</v>
@@ -5677,7 +5675,7 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B73" s="4">
         <v>0.02</v>
@@ -5745,7 +5743,7 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B74" s="4">
         <v>0.03</v>
@@ -5813,7 +5811,7 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B75" s="4">
         <v>0.03</v>
@@ -5881,7 +5879,7 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B76" s="4">
         <v>7.0000000000000007E-2</v>
@@ -5949,7 +5947,7 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B77" s="4">
         <v>0.01</v>
@@ -6017,7 +6015,7 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B78" s="3">
         <v>0.18</v>
@@ -6085,7 +6083,7 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B79" s="4">
         <v>0.11</v>
@@ -6153,7 +6151,7 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B80" s="4">
         <v>0.06</v>
@@ -6221,7 +6219,7 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B81" s="4">
         <v>0.05</v>
@@ -6289,7 +6287,7 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B82" s="4">
         <v>0.05</v>
@@ -6357,7 +6355,7 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B83" s="4">
         <v>7.0000000000000007E-2</v>
@@ -6425,7 +6423,7 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B84" s="4">
         <v>0.03</v>
@@ -6493,7 +6491,7 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B85" s="4">
         <v>0.09</v>
@@ -6561,7 +6559,7 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B86" s="4">
         <v>0</v>
@@ -6629,7 +6627,7 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B87" s="3">
         <v>0.23</v>
@@ -6697,7 +6695,7 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B88" s="4">
         <v>0.02</v>
@@ -6765,7 +6763,7 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B89" s="4">
         <v>0.04</v>
@@ -6833,7 +6831,7 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B90" s="4">
         <v>0.06</v>
@@ -6901,7 +6899,7 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B91" s="4">
         <v>0.01</v>
@@ -6969,7 +6967,7 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B92" s="4">
         <v>0.08</v>
@@ -7037,7 +7035,7 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B93" s="4">
         <v>0.03</v>
@@ -7105,7 +7103,7 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B94" s="4">
         <v>0.05</v>
@@ -7173,7 +7171,7 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B95" s="4">
         <v>0.06</v>
@@ -7241,7 +7239,7 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B96" s="4">
         <v>7.0000000000000007E-2</v>
@@ -7309,7 +7307,7 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B97" s="4">
         <v>0.05</v>
@@ -7377,7 +7375,7 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B98" s="4">
         <v>0.08</v>
@@ -7445,7 +7443,7 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B99" s="4">
         <v>0.02</v>
@@ -7513,7 +7511,7 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B100" s="3">
         <v>0.67</v>
@@ -7581,7 +7579,7 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B101" s="4">
         <v>0.15</v>
@@ -7649,7 +7647,7 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B102" s="4">
         <v>0.21</v>
@@ -7717,7 +7715,7 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B103" s="4">
         <v>0.24</v>
@@ -7785,7 +7783,7 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B104" s="4">
         <v>0.04</v>
@@ -7853,7 +7851,7 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B105" s="4">
         <v>0.44</v>
@@ -7921,7 +7919,7 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B106" s="4">
         <v>0.08</v>
@@ -7989,7 +7987,7 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B107" s="4">
         <v>0.1</v>
@@ -8057,7 +8055,7 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B108" s="4">
         <v>7.0000000000000007E-2</v>
@@ -8125,7 +8123,7 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B109" s="4">
         <v>0.11</v>
@@ -8193,7 +8191,7 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B110" s="4">
         <v>0.1</v>
@@ -8261,7 +8259,7 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B111" s="4">
         <v>0.16</v>
@@ -8329,7 +8327,7 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B112" s="4">
         <v>7.0000000000000007E-2</v>
@@ -8397,7 +8395,7 @@
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B113" s="4">
         <v>0.24</v>
@@ -8465,7 +8463,7 @@
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B114" s="4">
         <v>0.31</v>
@@ -8533,7 +8531,7 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B115" s="4">
         <v>0.1</v>
@@ -8601,7 +8599,7 @@
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B116" s="4">
         <v>0.02</v>
